--- a/UNIT1/S3/L1/S3L1.xlsx
+++ b/UNIT1/S3/L1/S3L1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astaroth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astaroth\Documents\GitHub\consegne\UNIT1\S3\L1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F58E54-E168-4C32-BE1E-C3C13FEBD14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA64F1E-D4FE-4E3F-834D-E5507EF2A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EA8103F-FEB5-4546-8EB8-E0BBDB44FCE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>P1</t>
   </si>
@@ -66,20 +66,23 @@
     <t>Monotasking</t>
   </si>
   <si>
-    <t>Multitasking</t>
-  </si>
-  <si>
     <t>Time sharing</t>
   </si>
   <si>
     <t>Esecuzione dopo attesa</t>
+  </si>
+  <si>
+    <t>Multitasking opz 1</t>
+  </si>
+  <si>
+    <t>Multitasking opz 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +139,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,14 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -270,45 +282,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -628,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2EDAB7-F849-4B6B-BC01-D356668E7A42}">
-  <dimension ref="A3:W44"/>
+  <dimension ref="A3:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,801 +659,971 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>7</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>8</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>9</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>10</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>12</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>13</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>14</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="S5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="5"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4">
         <v>12</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="N15" s="4">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="R25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="30"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="K26" s="4">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4">
+        <v>11</v>
+      </c>
+      <c r="M26" s="4">
+        <v>12</v>
+      </c>
+      <c r="N26" s="4">
+        <v>13</v>
+      </c>
+      <c r="O26" s="4">
+        <v>14</v>
+      </c>
+      <c r="P26" s="4">
+        <v>15</v>
+      </c>
+      <c r="R26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="T26" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="U26" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="V26" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="W26" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="X26" s="4">
         <v>6</v>
       </c>
-      <c r="H15" s="6">
+      <c r="Y26" s="4">
         <v>7</v>
       </c>
-      <c r="I15" s="6">
+      <c r="Z26" s="4">
         <v>8</v>
       </c>
-      <c r="J15" s="6">
+      <c r="AA26" s="4">
         <v>9</v>
       </c>
-      <c r="K15" s="6">
+      <c r="AB26" s="4">
         <v>10</v>
       </c>
-      <c r="L15" s="6">
+      <c r="AC26" s="4">
         <v>11</v>
       </c>
-      <c r="M15" s="6">
+      <c r="AD26" s="4">
         <v>12</v>
       </c>
-      <c r="N15" s="6">
+      <c r="AE26" s="4">
         <v>13</v>
       </c>
-      <c r="O15" s="6">
+      <c r="AF26" s="4">
         <v>14</v>
       </c>
-      <c r="P15" s="6">
+      <c r="AG26" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="R27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="R29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="R31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="R33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="5"/>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C37" s="4">
         <v>2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D37" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E37" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F37" s="4">
         <v>5</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G37" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H37" s="4">
         <v>7</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I37" s="4">
         <v>8</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J37" s="4">
         <v>9</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K37" s="4">
         <v>10</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L37" s="4">
         <v>11</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M37" s="4">
         <v>12</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N37" s="4">
         <v>13</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O37" s="4">
         <v>14</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P37" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6">
-        <v>4</v>
-      </c>
-      <c r="F37" s="6">
-        <v>5</v>
-      </c>
-      <c r="G37" s="6">
-        <v>6</v>
-      </c>
-      <c r="H37" s="6">
-        <v>7</v>
-      </c>
-      <c r="I37" s="6">
-        <v>8</v>
-      </c>
-      <c r="J37" s="6">
-        <v>9</v>
-      </c>
-      <c r="K37" s="6">
-        <v>10</v>
-      </c>
-      <c r="L37" s="6">
-        <v>11</v>
-      </c>
-      <c r="M37" s="6">
-        <v>12</v>
-      </c>
-      <c r="N37" s="6">
-        <v>13</v>
-      </c>
-      <c r="O37" s="6">
-        <v>14</v>
-      </c>
-      <c r="P37" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T6:V6"/>
@@ -1442,6 +1631,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R25:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UNIT1/S3/L1/S3L1.xlsx
+++ b/UNIT1/S3/L1/S3L1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astaroth\Documents\GitHub\consegne\UNIT1\S3\L1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA64F1E-D4FE-4E3F-834D-E5507EF2A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060FFC2-B8A2-4D25-9E77-68B39DF12DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EA8103F-FEB5-4546-8EB8-E0BBDB44FCE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>P1</t>
   </si>
@@ -77,12 +77,15 @@
   <si>
     <t>Multitasking opz 2</t>
   </si>
+  <si>
+    <t>Opzione migliore:  In questo caso multitaskig opz1 e time sharing impiegano lo stesso tempo, per questa casistita però il multitaskin è il metodo più efficiente in quanto sfrutta al meglio la cpu e I/O.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -295,6 +306,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,9 +339,13 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -647,22 +665,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2EDAB7-F849-4B6B-BC01-D356668E7A42}">
-  <dimension ref="A3:AG44"/>
+  <dimension ref="A3:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -678,7 +697,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -728,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -752,7 +771,7 @@
       </c>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -770,13 +789,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -796,13 +815,13 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -820,13 +839,13 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -846,7 +865,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -864,7 +883,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -884,13 +903,13 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
@@ -939,8 +958,24 @@
       <c r="P15" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S15" s="35"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
@@ -959,8 +994,24 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -977,8 +1028,24 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1065,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1016,7 +1083,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1103,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1054,7 +1121,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>3</v>
       </c>
@@ -1074,17 +1141,17 @@
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="R25" s="29" t="s">
+      <c r="B25" s="33"/>
+      <c r="R25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="30"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1275,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="33"/>
+      <c r="X27" s="23"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
@@ -1219,7 +1286,7 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1253,7 +1320,7 @@
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
@@ -1281,9 +1348,9 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="20"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="32"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="22"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
       <c r="AD29" s="5"/>
@@ -1291,7 +1358,7 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1325,7 +1392,7 @@
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1421,7 @@
       <c r="X31" s="20"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="20"/>
-      <c r="AA31" s="31"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
       <c r="AD31" s="5"/>
@@ -1362,7 +1429,7 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1427,18 +1494,18 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="5"/>
     </row>
     <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
@@ -1622,6 +1689,11 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
+    <row r="46" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A36:B36"/>
@@ -1634,5 +1706,6 @@
     <mergeCell ref="R25:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UNIT1/S3/L1/S3L1.xlsx
+++ b/UNIT1/S3/L1/S3L1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astaroth\Documents\GitHub\consegne\UNIT1\S3\L1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060FFC2-B8A2-4D25-9E77-68B39DF12DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903E0B9-437E-4A82-854A-613B9CB5C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EA8103F-FEB5-4546-8EB8-E0BBDB44FCE8}"/>
   </bookViews>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -293,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -309,6 +308,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,13 +345,8 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -667,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2EDAB7-F849-4B6B-BC01-D356668E7A42}">
   <dimension ref="A3:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,27 +679,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
@@ -748,7 +749,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
@@ -756,7 +757,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -772,7 +773,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -789,14 +790,14 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6"/>
@@ -815,14 +816,14 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -838,15 +839,15 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6"/>
@@ -866,7 +867,7 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -884,7 +885,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6"/>
@@ -904,13 +905,13 @@
       <c r="P11" s="5"/>
     </row>
     <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4">
@@ -958,25 +959,25 @@
       <c r="P15" s="4">
         <v>15</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="6"/>
@@ -984,7 +985,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -994,25 +995,25 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1028,25 +1029,25 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="5"/>
@@ -1055,8 +1056,8 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1066,7 +1067,7 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1084,7 +1085,7 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="5"/>
@@ -1095,7 +1096,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="6"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1104,7 +1105,7 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1122,7 +1123,7 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="5"/>
@@ -1142,17 +1143,17 @@
       <c r="P22" s="7"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="R25" s="32" t="s">
+      <c r="B25" s="35"/>
+      <c r="R25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="33"/>
+      <c r="S25" s="35"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="4">
@@ -1200,7 +1201,7 @@
       <c r="P26" s="4">
         <v>15</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="S26" s="4">
@@ -1250,7 +1251,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="6"/>
@@ -1262,12 +1263,12 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="16" t="s">
         <v>0</v>
       </c>
       <c r="S27" s="6"/>
@@ -1275,19 +1276,19 @@
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1303,25 +1304,25 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="R28" s="17"/>
+      <c r="R28" s="16"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="5"/>
@@ -1339,7 +1340,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="R29" s="17" t="s">
+      <c r="R29" s="16" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="5"/>
@@ -1347,19 +1348,19 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1375,25 +1376,25 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="R30" s="17"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="5"/>
@@ -1403,14 +1404,14 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="17" t="s">
+      <c r="R31" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S31" s="5"/>
@@ -1418,19 +1419,19 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1446,25 +1447,25 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="R32" s="17"/>
+      <c r="R32" s="16"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="5"/>
@@ -1482,7 +1483,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="16" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="5"/>
@@ -1490,25 +1491,25 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="5"/>
     </row>
     <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="27"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="4">
@@ -1558,7 +1559,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="6"/>
@@ -1569,15 +1570,15 @@
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="8"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1595,7 +1596,7 @@
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="5"/>
@@ -1615,7 +1616,7 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1633,7 +1634,7 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="5"/>
@@ -1643,7 +1644,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -1652,7 +1653,7 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1670,7 +1671,7 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="5"/>
@@ -1682,15 +1683,15 @@
       <c r="H44" s="6"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="37"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
     <row r="46" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="25" t="s">
         <v>14</v>
       </c>
     </row>
